--- a/example_output2.xlsx
+++ b/example_output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06-96019</t>
+          <t>06-20319</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>397100</v>
+        <v>169506</v>
       </c>
       <c r="D2" t="n">
-        <v>357390</v>
+        <v>152555</v>
       </c>
       <c r="E2" t="n">
-        <v>397100</v>
+        <v>169505</v>
       </c>
       <c r="F2" t="n">
-        <v>453828</v>
+        <v>193720</v>
       </c>
       <c r="G2" t="n">
-        <v>567285</v>
+        <v>242150</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06-96101</t>
+          <t>06-20619</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,19 +519,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39880</v>
+        <v>219506</v>
       </c>
       <c r="D3" t="n">
-        <v>35892</v>
+        <v>197555</v>
       </c>
       <c r="E3" t="n">
-        <v>39880</v>
+        <v>219505</v>
       </c>
       <c r="F3" t="n">
-        <v>45576</v>
+        <v>250864</v>
       </c>
       <c r="G3" t="n">
-        <v>56970</v>
+        <v>313580</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-96113</t>
+          <t>06-20819</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39980</v>
+        <v>145506</v>
       </c>
       <c r="D4" t="n">
-        <v>35982</v>
+        <v>130955</v>
       </c>
       <c r="E4" t="n">
-        <v>39980</v>
+        <v>145505</v>
       </c>
       <c r="F4" t="n">
-        <v>45692</v>
+        <v>166292</v>
       </c>
       <c r="G4" t="n">
-        <v>57115</v>
+        <v>207865</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-96119</t>
+          <t>06-21019</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40080</v>
+        <v>217506</v>
       </c>
       <c r="D5" t="n">
-        <v>36072</v>
+        <v>195755</v>
       </c>
       <c r="E5" t="n">
-        <v>40080</v>
+        <v>217505</v>
       </c>
       <c r="F5" t="n">
-        <v>45804</v>
+        <v>248580</v>
       </c>
       <c r="G5" t="n">
-        <v>57255</v>
+        <v>310725</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06-96201</t>
+          <t>06-21319</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -615,19 +615,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4011049506</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3609944555</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>4011049505</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4584056580</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>5730070725</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06-96601</t>
+          <t>06-21413</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>402467506</v>
+        <v>664506</v>
       </c>
       <c r="D7" t="n">
-        <v>362220755</v>
+        <v>598055</v>
       </c>
       <c r="E7" t="n">
-        <v>402467505</v>
+        <v>664505</v>
       </c>
       <c r="F7" t="n">
-        <v>459962864</v>
+        <v>759436</v>
       </c>
       <c r="G7" t="n">
-        <v>574953580</v>
+        <v>949295</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06-97101</t>
+          <t>06-21813</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>403566506</v>
+        <v>109506</v>
       </c>
       <c r="D8" t="n">
-        <v>363209855</v>
+        <v>98555</v>
       </c>
       <c r="E8" t="n">
-        <v>403566505</v>
+        <v>109505</v>
       </c>
       <c r="F8" t="n">
-        <v>461218864</v>
+        <v>125148</v>
       </c>
       <c r="G8" t="n">
-        <v>576523580</v>
+        <v>156435</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-06125</t>
+          <t>06-22542</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -711,19 +711,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>404369507</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>363932556</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>404369505</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>462136580</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>577670725</v>
+        <v>125</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-06162</t>
+          <t>06-22619</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -743,19 +743,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4052167507</v>
+        <v>252006</v>
       </c>
       <c r="D10" t="n">
-        <v>3646950756</v>
+        <v>226805</v>
       </c>
       <c r="E10" t="n">
-        <v>4052167505</v>
+        <v>252005</v>
       </c>
       <c r="F10" t="n">
-        <v>4631048580</v>
+        <v>288008</v>
       </c>
       <c r="G10" t="n">
-        <v>5788810725</v>
+        <v>360010</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07-06164</t>
+          <t>06-22719</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4064199007</v>
+        <v>716006</v>
       </c>
       <c r="D11" t="n">
-        <v>3657779106</v>
+        <v>644405</v>
       </c>
       <c r="E11" t="n">
-        <v>4064199005</v>
+        <v>716005</v>
       </c>
       <c r="F11" t="n">
-        <v>4644798864</v>
+        <v>818292</v>
       </c>
       <c r="G11" t="n">
-        <v>5805998580</v>
+        <v>1022865</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>07-06166</t>
+          <t>06-22819</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4076241007</v>
+        <v>488506</v>
       </c>
       <c r="D12" t="n">
-        <v>3668616906</v>
+        <v>439655</v>
       </c>
       <c r="E12" t="n">
-        <v>4076241005</v>
+        <v>488505</v>
       </c>
       <c r="F12" t="n">
-        <v>4658561152</v>
+        <v>558292</v>
       </c>
       <c r="G12" t="n">
-        <v>5823201440</v>
+        <v>697865</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-06168</t>
+          <t>06-23019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -839,19 +839,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40882830</v>
+        <v>24506</v>
       </c>
       <c r="D13" t="n">
-        <v>36794547</v>
+        <v>22055</v>
       </c>
       <c r="E13" t="n">
-        <v>40882830</v>
+        <v>24505</v>
       </c>
       <c r="F13" t="n">
-        <v>46723236</v>
+        <v>28008</v>
       </c>
       <c r="G13" t="n">
-        <v>58404045</v>
+        <v>35010</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07-06169</t>
+          <t>06-23119</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4099304007</v>
+        <v>15506</v>
       </c>
       <c r="D14" t="n">
-        <v>3689373606</v>
+        <v>13955</v>
       </c>
       <c r="E14" t="n">
-        <v>4099304005</v>
+        <v>15505</v>
       </c>
       <c r="F14" t="n">
-        <v>4684918864</v>
+        <v>17720</v>
       </c>
       <c r="G14" t="n">
-        <v>5856148580</v>
+        <v>22150</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07-07235</t>
+          <t>06-23419</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -903,19 +903,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>410379507</v>
+        <v>59506</v>
       </c>
       <c r="D15" t="n">
-        <v>369341556</v>
+        <v>53555</v>
       </c>
       <c r="E15" t="n">
-        <v>410379505</v>
+        <v>59505</v>
       </c>
       <c r="F15" t="n">
-        <v>469005152</v>
+        <v>68008</v>
       </c>
       <c r="G15" t="n">
-        <v>586256440</v>
+        <v>85010</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>07-07262</t>
+          <t>06-23819</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -935,19 +935,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4112138007</v>
+        <v>54506</v>
       </c>
       <c r="D16" t="n">
-        <v>3700924206</v>
+        <v>49055</v>
       </c>
       <c r="E16" t="n">
-        <v>4112138005</v>
+        <v>54505</v>
       </c>
       <c r="F16" t="n">
-        <v>4699586292</v>
+        <v>62292</v>
       </c>
       <c r="G16" t="n">
-        <v>5874482865</v>
+        <v>77865</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07-07264</t>
+          <t>06-23919</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -967,19 +967,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4124159007</v>
+        <v>174506</v>
       </c>
       <c r="D17" t="n">
-        <v>3711743106</v>
+        <v>157055</v>
       </c>
       <c r="E17" t="n">
-        <v>4124159005</v>
+        <v>174505</v>
       </c>
       <c r="F17" t="n">
-        <v>4713324580</v>
+        <v>199436</v>
       </c>
       <c r="G17" t="n">
-        <v>5891655725</v>
+        <v>249295</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07-07266</t>
+          <t>06-24042</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4136207507</v>
+        <v>389506</v>
       </c>
       <c r="D18" t="n">
-        <v>3722586756</v>
+        <v>350555</v>
       </c>
       <c r="E18" t="n">
-        <v>4136207505</v>
+        <v>389505</v>
       </c>
       <c r="F18" t="n">
-        <v>4727094292</v>
+        <v>445148</v>
       </c>
       <c r="G18" t="n">
-        <v>5908867865</v>
+        <v>556435</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07-07268</t>
+          <t>06-24219</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1031,19 +1031,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4148253007</v>
+        <v>20006</v>
       </c>
       <c r="D19" t="n">
-        <v>3733427706</v>
+        <v>18005</v>
       </c>
       <c r="E19" t="n">
-        <v>4148253005</v>
+        <v>20005</v>
       </c>
       <c r="F19" t="n">
-        <v>4740860580</v>
+        <v>22864</v>
       </c>
       <c r="G19" t="n">
-        <v>5926075725</v>
+        <v>28580</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>07-07270</t>
+          <t>06-24342</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1063,19 +1063,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>41587507</v>
+        <v>14506</v>
       </c>
       <c r="D20" t="n">
-        <v>37428756</v>
+        <v>13055</v>
       </c>
       <c r="E20" t="n">
-        <v>41587505</v>
+        <v>14505</v>
       </c>
       <c r="F20" t="n">
-        <v>47528580</v>
+        <v>16580</v>
       </c>
       <c r="G20" t="n">
-        <v>59410725</v>
+        <v>20725</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07-09061</t>
+          <t>06-24442</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1095,19 +1095,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4163</v>
+        <v>26506</v>
       </c>
       <c r="D21" t="n">
-        <v>3746</v>
+        <v>23855</v>
       </c>
       <c r="E21" t="n">
-        <v>4165</v>
+        <v>26505</v>
       </c>
       <c r="F21" t="n">
-        <v>4756</v>
+        <v>30292</v>
       </c>
       <c r="G21" t="n">
-        <v>5945</v>
+        <v>37865</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07-09062</t>
+          <t>06-24542</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4173</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>3755</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>4175</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>4768</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>5960</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>07-09063</t>
+          <t>06-24719</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1159,19 +1159,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4183</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>3764</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>4185</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>4780</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>5975</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>07-09064</t>
+          <t>06-24810</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1191,19 +1191,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4193</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>3773</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>4195</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>4792</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>5990</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07-09065</t>
+          <t>06-24819</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4203</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3782</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>4205</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4804</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>6005</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>07-09066</t>
+          <t>06-24842</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1255,19 +1255,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4213</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>3791</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>4215</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>4816</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>6020</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>07-09067</t>
+          <t>06-25019</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1287,19 +1287,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4223</v>
+        <v>189506</v>
       </c>
       <c r="D27" t="n">
-        <v>3800</v>
+        <v>170555</v>
       </c>
       <c r="E27" t="n">
-        <v>4225</v>
+        <v>189505</v>
       </c>
       <c r="F27" t="n">
-        <v>4828</v>
+        <v>216580</v>
       </c>
       <c r="G27" t="n">
-        <v>6035</v>
+        <v>270725</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>07-09068</t>
+          <t>06-25119</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1319,19 +1319,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4233</v>
+        <v>543506</v>
       </c>
       <c r="D28" t="n">
-        <v>3809</v>
+        <v>489155</v>
       </c>
       <c r="E28" t="n">
-        <v>4235</v>
+        <v>543505</v>
       </c>
       <c r="F28" t="n">
-        <v>4836</v>
+        <v>621148</v>
       </c>
       <c r="G28" t="n">
-        <v>6045</v>
+        <v>776435</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>07-09069</t>
+          <t>06-25519</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1351,19 +1351,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4243</v>
+        <v>21506</v>
       </c>
       <c r="D29" t="n">
-        <v>3818</v>
+        <v>19355</v>
       </c>
       <c r="E29" t="n">
-        <v>4245</v>
+        <v>21505</v>
       </c>
       <c r="F29" t="n">
-        <v>4848</v>
+        <v>24580</v>
       </c>
       <c r="G29" t="n">
-        <v>6060</v>
+        <v>30725</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>07-09070</t>
+          <t>06-25819</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1383,19 +1383,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4253</v>
+        <v>29506</v>
       </c>
       <c r="D30" t="n">
-        <v>3827</v>
+        <v>26555</v>
       </c>
       <c r="E30" t="n">
-        <v>4255</v>
+        <v>29505</v>
       </c>
       <c r="F30" t="n">
-        <v>4860</v>
+        <v>33720</v>
       </c>
       <c r="G30" t="n">
-        <v>6075</v>
+        <v>42150</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07-09235</t>
+          <t>06-25942</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1415,19 +1415,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>426369507</v>
+        <v>79506</v>
       </c>
       <c r="D31" t="n">
-        <v>383732556</v>
+        <v>71555</v>
       </c>
       <c r="E31" t="n">
-        <v>426369505</v>
+        <v>79505</v>
       </c>
       <c r="F31" t="n">
-        <v>487279436</v>
+        <v>90864</v>
       </c>
       <c r="G31" t="n">
-        <v>609099295</v>
+        <v>113580</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>07-09262</t>
+          <t>06-26419</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1447,19 +1447,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4272132007</v>
+        <v>32506</v>
       </c>
       <c r="D32" t="n">
-        <v>3844918806</v>
+        <v>29255</v>
       </c>
       <c r="E32" t="n">
-        <v>4272132005</v>
+        <v>32505</v>
       </c>
       <c r="F32" t="n">
-        <v>4882436580</v>
+        <v>37148</v>
       </c>
       <c r="G32" t="n">
-        <v>6103045725</v>
+        <v>46435</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07-09264</t>
+          <t>06-27219</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1479,19 +1479,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4284152507</v>
+        <v>54506</v>
       </c>
       <c r="D33" t="n">
-        <v>3855737256</v>
+        <v>49055</v>
       </c>
       <c r="E33" t="n">
-        <v>4284152505</v>
+        <v>54505</v>
       </c>
       <c r="F33" t="n">
-        <v>4896174292</v>
+        <v>62292</v>
       </c>
       <c r="G33" t="n">
-        <v>6120217865</v>
+        <v>77865</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07-09266</t>
+          <t>06-27419</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1511,19 +1511,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4296213507</v>
+        <v>73006</v>
       </c>
       <c r="D34" t="n">
-        <v>3866592156</v>
+        <v>65705</v>
       </c>
       <c r="E34" t="n">
-        <v>4296213505</v>
+        <v>73005</v>
       </c>
       <c r="F34" t="n">
-        <v>4909958292</v>
+        <v>83436</v>
       </c>
       <c r="G34" t="n">
-        <v>6137447865</v>
+        <v>104295</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>07-09268</t>
+          <t>06-27619</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1543,19 +1543,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4308264007</v>
+        <v>39506</v>
       </c>
       <c r="D35" t="n">
-        <v>3877437606</v>
+        <v>35555</v>
       </c>
       <c r="E35" t="n">
-        <v>4308264005</v>
+        <v>39505</v>
       </c>
       <c r="F35" t="n">
-        <v>4923730292</v>
+        <v>45148</v>
       </c>
       <c r="G35" t="n">
-        <v>6154662865</v>
+        <v>56435</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>07-09270</t>
+          <t>06-27744</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1575,19 +1575,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>43172507</v>
+        <v>72506</v>
       </c>
       <c r="D36" t="n">
-        <v>38855256</v>
+        <v>65255</v>
       </c>
       <c r="E36" t="n">
-        <v>43172505</v>
+        <v>72505</v>
       </c>
       <c r="F36" t="n">
-        <v>49340008</v>
+        <v>82864</v>
       </c>
       <c r="G36" t="n">
-        <v>61675010</v>
+        <v>103580</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07-10061</t>
+          <t>06-27844</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1607,19 +1607,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4323</v>
+        <v>53006</v>
       </c>
       <c r="D37" t="n">
-        <v>3890</v>
+        <v>47705</v>
       </c>
       <c r="E37" t="n">
-        <v>4325</v>
+        <v>53005</v>
       </c>
       <c r="F37" t="n">
-        <v>4940</v>
+        <v>60580</v>
       </c>
       <c r="G37" t="n">
-        <v>6175</v>
+        <v>75725</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>07-10062</t>
+          <t>06-28044</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1639,19 +1639,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4333</v>
+        <v>70006</v>
       </c>
       <c r="D38" t="n">
-        <v>3899</v>
+        <v>63005</v>
       </c>
       <c r="E38" t="n">
-        <v>4335</v>
+        <v>70005</v>
       </c>
       <c r="F38" t="n">
-        <v>4952</v>
+        <v>80008</v>
       </c>
       <c r="G38" t="n">
-        <v>6190</v>
+        <v>100010</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07-10063</t>
+          <t>06-28149</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1671,19 +1671,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4343</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3908</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>4345</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>4964</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>6205</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07-10064</t>
+          <t>06-28244</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1703,19 +1703,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4353</v>
+        <v>22006</v>
       </c>
       <c r="D40" t="n">
-        <v>3917</v>
+        <v>19805</v>
       </c>
       <c r="E40" t="n">
-        <v>4355</v>
+        <v>22005</v>
       </c>
       <c r="F40" t="n">
-        <v>4976</v>
+        <v>25148</v>
       </c>
       <c r="G40" t="n">
-        <v>6220</v>
+        <v>31435</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>07-10065</t>
+          <t>06-28344</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1735,19 +1735,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4363</v>
+        <v>17506</v>
       </c>
       <c r="D41" t="n">
-        <v>3926</v>
+        <v>15755</v>
       </c>
       <c r="E41" t="n">
-        <v>4365</v>
+        <v>17505</v>
       </c>
       <c r="F41" t="n">
-        <v>4988</v>
+        <v>20008</v>
       </c>
       <c r="G41" t="n">
-        <v>6235</v>
+        <v>25010</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>07-10066</t>
+          <t>06-28444</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1767,19 +1767,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4373</v>
+        <v>40506</v>
       </c>
       <c r="D42" t="n">
-        <v>3935</v>
+        <v>36455</v>
       </c>
       <c r="E42" t="n">
-        <v>4375</v>
+        <v>40505</v>
       </c>
       <c r="F42" t="n">
-        <v>4996</v>
+        <v>46292</v>
       </c>
       <c r="G42" t="n">
-        <v>6245</v>
+        <v>57865</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07-10067</t>
+          <t>06-28644</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1799,19 +1799,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4383</v>
+        <v>326506</v>
       </c>
       <c r="D43" t="n">
-        <v>3944</v>
+        <v>293855</v>
       </c>
       <c r="E43" t="n">
-        <v>4385</v>
+        <v>326505</v>
       </c>
       <c r="F43" t="n">
-        <v>5008</v>
+        <v>373148</v>
       </c>
       <c r="G43" t="n">
-        <v>6260</v>
+        <v>466435</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>07-10068</t>
+          <t>06-29044</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1831,19 +1831,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4393</v>
+        <v>152506</v>
       </c>
       <c r="D44" t="n">
-        <v>3953</v>
+        <v>137255</v>
       </c>
       <c r="E44" t="n">
-        <v>4395</v>
+        <v>152505</v>
       </c>
       <c r="F44" t="n">
-        <v>5020</v>
+        <v>174292</v>
       </c>
       <c r="G44" t="n">
-        <v>6275</v>
+        <v>217865</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>07-10069</t>
+          <t>06-29244</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1863,19 +1863,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4403</v>
+        <v>16506</v>
       </c>
       <c r="D45" t="n">
-        <v>3962</v>
+        <v>14855</v>
       </c>
       <c r="E45" t="n">
-        <v>4405</v>
+        <v>16505</v>
       </c>
       <c r="F45" t="n">
-        <v>5032</v>
+        <v>18864</v>
       </c>
       <c r="G45" t="n">
-        <v>6290</v>
+        <v>23580</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>07-10070</t>
+          <t>06-29491</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1895,19 +1895,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4413</v>
+        <v>52006</v>
       </c>
       <c r="D46" t="n">
-        <v>3971</v>
+        <v>46805</v>
       </c>
       <c r="E46" t="n">
-        <v>4415</v>
+        <v>52005</v>
       </c>
       <c r="F46" t="n">
-        <v>5044</v>
+        <v>59436</v>
       </c>
       <c r="G46" t="n">
-        <v>6305</v>
+        <v>74295</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1918,30 +1918,6526 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>06-29691</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>06-29891</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>06-30019</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>61506</v>
+      </c>
+      <c r="D49" t="n">
+        <v>55355</v>
+      </c>
+      <c r="E49" t="n">
+        <v>61505</v>
+      </c>
+      <c r="F49" t="n">
+        <v>70292</v>
+      </c>
+      <c r="G49" t="n">
+        <v>87865</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>06-30490</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15506</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13955</v>
+      </c>
+      <c r="E50" t="n">
+        <v>15505</v>
+      </c>
+      <c r="F50" t="n">
+        <v>17720</v>
+      </c>
+      <c r="G50" t="n">
+        <v>22150</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>06-30690</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>38506</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34655</v>
+      </c>
+      <c r="E51" t="n">
+        <v>38505</v>
+      </c>
+      <c r="F51" t="n">
+        <v>44008</v>
+      </c>
+      <c r="G51" t="n">
+        <v>55010</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>06-30890</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>53506</v>
+      </c>
+      <c r="D52" t="n">
+        <v>48155</v>
+      </c>
+      <c r="E52" t="n">
+        <v>53505</v>
+      </c>
+      <c r="F52" t="n">
+        <v>61148</v>
+      </c>
+      <c r="G52" t="n">
+        <v>76435</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>06-31019</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>06-31419</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>39506</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35555</v>
+      </c>
+      <c r="E54" t="n">
+        <v>39505</v>
+      </c>
+      <c r="F54" t="n">
+        <v>45148</v>
+      </c>
+      <c r="G54" t="n">
+        <v>56435</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>06-31519</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54506</v>
+      </c>
+      <c r="D55" t="n">
+        <v>49055</v>
+      </c>
+      <c r="E55" t="n">
+        <v>54505</v>
+      </c>
+      <c r="F55" t="n">
+        <v>62292</v>
+      </c>
+      <c r="G55" t="n">
+        <v>77865</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>06-31744</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>80006</v>
+      </c>
+      <c r="D56" t="n">
+        <v>72005</v>
+      </c>
+      <c r="E56" t="n">
+        <v>80005</v>
+      </c>
+      <c r="F56" t="n">
+        <v>91436</v>
+      </c>
+      <c r="G56" t="n">
+        <v>114295</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>06-32490</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>43506</v>
+      </c>
+      <c r="D57" t="n">
+        <v>39155</v>
+      </c>
+      <c r="E57" t="n">
+        <v>43505</v>
+      </c>
+      <c r="F57" t="n">
+        <v>49720</v>
+      </c>
+      <c r="G57" t="n">
+        <v>62150</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>06-32590</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>39506</v>
+      </c>
+      <c r="D58" t="n">
+        <v>35555</v>
+      </c>
+      <c r="E58" t="n">
+        <v>39505</v>
+      </c>
+      <c r="F58" t="n">
+        <v>45148</v>
+      </c>
+      <c r="G58" t="n">
+        <v>56435</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>06-32719</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06-32801</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>35506</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31955</v>
+      </c>
+      <c r="E60" t="n">
+        <v>35505</v>
+      </c>
+      <c r="F60" t="n">
+        <v>40580</v>
+      </c>
+      <c r="G60" t="n">
+        <v>50725</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>06-32901</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>46506</v>
+      </c>
+      <c r="D61" t="n">
+        <v>41855</v>
+      </c>
+      <c r="E61" t="n">
+        <v>46505</v>
+      </c>
+      <c r="F61" t="n">
+        <v>53148</v>
+      </c>
+      <c r="G61" t="n">
+        <v>66435</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>06-33519</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>59506</v>
+      </c>
+      <c r="D62" t="n">
+        <v>53555</v>
+      </c>
+      <c r="E62" t="n">
+        <v>59505</v>
+      </c>
+      <c r="F62" t="n">
+        <v>68008</v>
+      </c>
+      <c r="G62" t="n">
+        <v>85010</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>06-34019</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>47506</v>
+      </c>
+      <c r="D63" t="n">
+        <v>42755</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47505</v>
+      </c>
+      <c r="F63" t="n">
+        <v>54292</v>
+      </c>
+      <c r="G63" t="n">
+        <v>67865</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>06-34219</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>33506</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30155</v>
+      </c>
+      <c r="E64" t="n">
+        <v>33505</v>
+      </c>
+      <c r="F64" t="n">
+        <v>38292</v>
+      </c>
+      <c r="G64" t="n">
+        <v>47865</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>06-34319</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>49506</v>
+      </c>
+      <c r="D65" t="n">
+        <v>44555</v>
+      </c>
+      <c r="E65" t="n">
+        <v>49505</v>
+      </c>
+      <c r="F65" t="n">
+        <v>56580</v>
+      </c>
+      <c r="G65" t="n">
+        <v>70725</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>06-34419</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>73506</v>
+      </c>
+      <c r="D66" t="n">
+        <v>66155</v>
+      </c>
+      <c r="E66" t="n">
+        <v>73505</v>
+      </c>
+      <c r="F66" t="n">
+        <v>84008</v>
+      </c>
+      <c r="G66" t="n">
+        <v>105010</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>06-34819</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>369506</v>
+      </c>
+      <c r="D67" t="n">
+        <v>332555</v>
+      </c>
+      <c r="E67" t="n">
+        <v>369505</v>
+      </c>
+      <c r="F67" t="n">
+        <v>422292</v>
+      </c>
+      <c r="G67" t="n">
+        <v>527865</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>06-35019</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>35506</v>
+      </c>
+      <c r="D68" t="n">
+        <v>31955</v>
+      </c>
+      <c r="E68" t="n">
+        <v>35505</v>
+      </c>
+      <c r="F68" t="n">
+        <v>40580</v>
+      </c>
+      <c r="G68" t="n">
+        <v>50725</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>06-36119</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>62506</v>
+      </c>
+      <c r="D69" t="n">
+        <v>56255</v>
+      </c>
+      <c r="E69" t="n">
+        <v>62505</v>
+      </c>
+      <c r="F69" t="n">
+        <v>71436</v>
+      </c>
+      <c r="G69" t="n">
+        <v>89295</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>06-36419</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>86506</v>
+      </c>
+      <c r="D70" t="n">
+        <v>77855</v>
+      </c>
+      <c r="E70" t="n">
+        <v>86505</v>
+      </c>
+      <c r="F70" t="n">
+        <v>98864</v>
+      </c>
+      <c r="G70" t="n">
+        <v>123580</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>06-36519</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>108006</v>
+      </c>
+      <c r="D71" t="n">
+        <v>97205</v>
+      </c>
+      <c r="E71" t="n">
+        <v>108005</v>
+      </c>
+      <c r="F71" t="n">
+        <v>123436</v>
+      </c>
+      <c r="G71" t="n">
+        <v>154295</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>06-38119</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>48506</v>
+      </c>
+      <c r="D72" t="n">
+        <v>43655</v>
+      </c>
+      <c r="E72" t="n">
+        <v>48505</v>
+      </c>
+      <c r="F72" t="n">
+        <v>55436</v>
+      </c>
+      <c r="G72" t="n">
+        <v>69295</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>06-38619</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>69506</v>
+      </c>
+      <c r="D73" t="n">
+        <v>62555</v>
+      </c>
+      <c r="E73" t="n">
+        <v>69505</v>
+      </c>
+      <c r="F73" t="n">
+        <v>79436</v>
+      </c>
+      <c r="G73" t="n">
+        <v>99295</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>06-39315</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>35506</v>
+      </c>
+      <c r="D74" t="n">
+        <v>31955</v>
+      </c>
+      <c r="E74" t="n">
+        <v>35505</v>
+      </c>
+      <c r="F74" t="n">
+        <v>40580</v>
+      </c>
+      <c r="G74" t="n">
+        <v>50725</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>06-39615</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>67506</v>
+      </c>
+      <c r="D75" t="n">
+        <v>60755</v>
+      </c>
+      <c r="E75" t="n">
+        <v>67505</v>
+      </c>
+      <c r="F75" t="n">
+        <v>77148</v>
+      </c>
+      <c r="G75" t="n">
+        <v>96435</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>06-39715</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>20506</v>
+      </c>
+      <c r="D76" t="n">
+        <v>18455</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20505</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23436</v>
+      </c>
+      <c r="G76" t="n">
+        <v>29295</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>06-40015</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>29506</v>
+      </c>
+      <c r="D77" t="n">
+        <v>26555</v>
+      </c>
+      <c r="E77" t="n">
+        <v>29505</v>
+      </c>
+      <c r="F77" t="n">
+        <v>33720</v>
+      </c>
+      <c r="G77" t="n">
+        <v>42150</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>06-40119</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>38506</v>
+      </c>
+      <c r="D78" t="n">
+        <v>34655</v>
+      </c>
+      <c r="E78" t="n">
+        <v>38505</v>
+      </c>
+      <c r="F78" t="n">
+        <v>44008</v>
+      </c>
+      <c r="G78" t="n">
+        <v>55010</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>06-41519</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>139506</v>
+      </c>
+      <c r="D79" t="n">
+        <v>125555</v>
+      </c>
+      <c r="E79" t="n">
+        <v>139505</v>
+      </c>
+      <c r="F79" t="n">
+        <v>159436</v>
+      </c>
+      <c r="G79" t="n">
+        <v>199295</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>06-45019</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>80</v>
+      </c>
+      <c r="D80" t="n">
+        <v>72</v>
+      </c>
+      <c r="E80" t="n">
+        <v>80</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" t="n">
+        <v>125</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>06-51189</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1595</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1435</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2530</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06-51512</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>109506</v>
+      </c>
+      <c r="D82" t="n">
+        <v>98555</v>
+      </c>
+      <c r="E82" t="n">
+        <v>109505</v>
+      </c>
+      <c r="F82" t="n">
+        <v>125148</v>
+      </c>
+      <c r="G82" t="n">
+        <v>156435</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>06-51612</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>89506</v>
+      </c>
+      <c r="D83" t="n">
+        <v>80555</v>
+      </c>
+      <c r="E83" t="n">
+        <v>89505</v>
+      </c>
+      <c r="F83" t="n">
+        <v>102292</v>
+      </c>
+      <c r="G83" t="n">
+        <v>127865</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>06-52012</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>87506</v>
+      </c>
+      <c r="D84" t="n">
+        <v>78755</v>
+      </c>
+      <c r="E84" t="n">
+        <v>87505</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100008</v>
+      </c>
+      <c r="G84" t="n">
+        <v>125010</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>06-52112</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>59506</v>
+      </c>
+      <c r="D85" t="n">
+        <v>53555</v>
+      </c>
+      <c r="E85" t="n">
+        <v>59505</v>
+      </c>
+      <c r="F85" t="n">
+        <v>68008</v>
+      </c>
+      <c r="G85" t="n">
+        <v>85010</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>06-52212</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>41506</v>
+      </c>
+      <c r="D86" t="n">
+        <v>37355</v>
+      </c>
+      <c r="E86" t="n">
+        <v>41505</v>
+      </c>
+      <c r="F86" t="n">
+        <v>47436</v>
+      </c>
+      <c r="G86" t="n">
+        <v>59295</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>06-52312</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>51506</v>
+      </c>
+      <c r="D87" t="n">
+        <v>46355</v>
+      </c>
+      <c r="E87" t="n">
+        <v>51505</v>
+      </c>
+      <c r="F87" t="n">
+        <v>58864</v>
+      </c>
+      <c r="G87" t="n">
+        <v>73580</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>06-52612</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>06-52712</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>06-52812</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>119506</v>
+      </c>
+      <c r="D90" t="n">
+        <v>107555</v>
+      </c>
+      <c r="E90" t="n">
+        <v>119505</v>
+      </c>
+      <c r="F90" t="n">
+        <v>136580</v>
+      </c>
+      <c r="G90" t="n">
+        <v>170725</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>06-60118</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1186506</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1067855</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1186505</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1356008</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1695010</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>06-60918</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>956506</v>
+      </c>
+      <c r="D92" t="n">
+        <v>860855</v>
+      </c>
+      <c r="E92" t="n">
+        <v>956505</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1093148</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1366435</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>06-61018</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>477506</v>
+      </c>
+      <c r="D93" t="n">
+        <v>429755</v>
+      </c>
+      <c r="E93" t="n">
+        <v>477505</v>
+      </c>
+      <c r="F93" t="n">
+        <v>545720</v>
+      </c>
+      <c r="G93" t="n">
+        <v>682150</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>06-62113</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>367506</v>
+      </c>
+      <c r="D94" t="n">
+        <v>330755</v>
+      </c>
+      <c r="E94" t="n">
+        <v>367505</v>
+      </c>
+      <c r="F94" t="n">
+        <v>420008</v>
+      </c>
+      <c r="G94" t="n">
+        <v>525010</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>06-62818</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1499506</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1349555</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1499505</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1713720</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2142150</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>06-64119</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>367506</v>
+      </c>
+      <c r="D96" t="n">
+        <v>330755</v>
+      </c>
+      <c r="E96" t="n">
+        <v>367505</v>
+      </c>
+      <c r="F96" t="n">
+        <v>420008</v>
+      </c>
+      <c r="G96" t="n">
+        <v>525010</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>06-64419</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1699506</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1529555</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1699505</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1942292</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2427865</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>06-66500</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1053506</v>
+      </c>
+      <c r="D98" t="n">
+        <v>948155</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1053505</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1204008</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1505010</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>06-70598</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>130</v>
+      </c>
+      <c r="D99" t="n">
+        <v>117</v>
+      </c>
+      <c r="E99" t="n">
+        <v>130</v>
+      </c>
+      <c r="F99" t="n">
+        <v>164</v>
+      </c>
+      <c r="G99" t="n">
+        <v>205</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>06-70998</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>314006</v>
+      </c>
+      <c r="D100" t="n">
+        <v>282605</v>
+      </c>
+      <c r="E100" t="n">
+        <v>314005</v>
+      </c>
+      <c r="F100" t="n">
+        <v>358864</v>
+      </c>
+      <c r="G100" t="n">
+        <v>448580</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>06-75500</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>615506</v>
+      </c>
+      <c r="D101" t="n">
+        <v>553955</v>
+      </c>
+      <c r="E101" t="n">
+        <v>615505</v>
+      </c>
+      <c r="F101" t="n">
+        <v>703436</v>
+      </c>
+      <c r="G101" t="n">
+        <v>879295</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>06-75800</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>739506</v>
+      </c>
+      <c r="D102" t="n">
+        <v>665555</v>
+      </c>
+      <c r="E102" t="n">
+        <v>739505</v>
+      </c>
+      <c r="F102" t="n">
+        <v>845148</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1056435</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>06-76300</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1139506</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1025555</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1139505</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1302292</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1627865</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>06-76500</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>499506</v>
+      </c>
+      <c r="D104" t="n">
+        <v>449555</v>
+      </c>
+      <c r="E104" t="n">
+        <v>499505</v>
+      </c>
+      <c r="F104" t="n">
+        <v>570864</v>
+      </c>
+      <c r="G104" t="n">
+        <v>713580</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>06-76900</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1976506</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1778855</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1976505</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2258864</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2823580</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>06-77400</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1727506</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1554755</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1727505</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1974292</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2467865</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>06-78800</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>237506</v>
+      </c>
+      <c r="D107" t="n">
+        <v>213755</v>
+      </c>
+      <c r="E107" t="n">
+        <v>237505</v>
+      </c>
+      <c r="F107" t="n">
+        <v>271436</v>
+      </c>
+      <c r="G107" t="n">
+        <v>339295</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>06-79300</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>150</v>
+      </c>
+      <c r="D108" t="n">
+        <v>135</v>
+      </c>
+      <c r="E108" t="n">
+        <v>150</v>
+      </c>
+      <c r="F108" t="n">
+        <v>192</v>
+      </c>
+      <c r="G108" t="n">
+        <v>240</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>06-79400</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>244</v>
+      </c>
+      <c r="D109" t="n">
+        <v>219</v>
+      </c>
+      <c r="E109" t="n">
+        <v>245</v>
+      </c>
+      <c r="F109" t="n">
+        <v>308</v>
+      </c>
+      <c r="G109" t="n">
+        <v>385</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>06-80713</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1422506</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1280255</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1422505</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1625720</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2032150</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>06-80813</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1373506</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1236155</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1373505</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1569720</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1962150</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>06-80819</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1367506</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1230755</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1367505</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1562864</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1953580</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>06-81719</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>120</v>
+      </c>
+      <c r="D113" t="n">
+        <v>108</v>
+      </c>
+      <c r="E113" t="n">
+        <v>120</v>
+      </c>
+      <c r="F113" t="n">
+        <v>152</v>
+      </c>
+      <c r="G113" t="n">
+        <v>190</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>06-81918</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>80</v>
+      </c>
+      <c r="D114" t="n">
+        <v>72</v>
+      </c>
+      <c r="E114" t="n">
+        <v>80</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="n">
+        <v>125</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>06-81919</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>80</v>
+      </c>
+      <c r="D115" t="n">
+        <v>72</v>
+      </c>
+      <c r="E115" t="n">
+        <v>80</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" t="n">
+        <v>125</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>06-82018</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>240</v>
+      </c>
+      <c r="D116" t="n">
+        <v>216</v>
+      </c>
+      <c r="E116" t="n">
+        <v>240</v>
+      </c>
+      <c r="F116" t="n">
+        <v>304</v>
+      </c>
+      <c r="G116" t="n">
+        <v>380</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>06-82218</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>150</v>
+      </c>
+      <c r="D117" t="n">
+        <v>135</v>
+      </c>
+      <c r="E117" t="n">
+        <v>150</v>
+      </c>
+      <c r="F117" t="n">
+        <v>192</v>
+      </c>
+      <c r="G117" t="n">
+        <v>240</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>06-82318</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>10495</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9445</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10495</v>
+      </c>
+      <c r="F118" t="n">
+        <v>11996</v>
+      </c>
+      <c r="G118" t="n">
+        <v>14995</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>06-82501</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>839506</v>
+      </c>
+      <c r="D119" t="n">
+        <v>755555</v>
+      </c>
+      <c r="E119" t="n">
+        <v>839505</v>
+      </c>
+      <c r="F119" t="n">
+        <v>959436</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1199295</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>06-82618</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>299506</v>
+      </c>
+      <c r="D120" t="n">
+        <v>269555</v>
+      </c>
+      <c r="E120" t="n">
+        <v>299505</v>
+      </c>
+      <c r="F120" t="n">
+        <v>342292</v>
+      </c>
+      <c r="G120" t="n">
+        <v>427865</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>06-82818</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>110</v>
+      </c>
+      <c r="D121" t="n">
+        <v>99</v>
+      </c>
+      <c r="E121" t="n">
+        <v>110</v>
+      </c>
+      <c r="F121" t="n">
+        <v>140</v>
+      </c>
+      <c r="G121" t="n">
+        <v>175</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>06-83118</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>200</v>
+      </c>
+      <c r="D122" t="n">
+        <v>180</v>
+      </c>
+      <c r="E122" t="n">
+        <v>200</v>
+      </c>
+      <c r="F122" t="n">
+        <v>252</v>
+      </c>
+      <c r="G122" t="n">
+        <v>315</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>06-83119</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>200</v>
+      </c>
+      <c r="D123" t="n">
+        <v>180</v>
+      </c>
+      <c r="E123" t="n">
+        <v>200</v>
+      </c>
+      <c r="F123" t="n">
+        <v>252</v>
+      </c>
+      <c r="G123" t="n">
+        <v>315</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>06-83222</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>240</v>
+      </c>
+      <c r="D124" t="n">
+        <v>216</v>
+      </c>
+      <c r="E124" t="n">
+        <v>240</v>
+      </c>
+      <c r="F124" t="n">
+        <v>304</v>
+      </c>
+      <c r="G124" t="n">
+        <v>380</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>06-83318</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>150</v>
+      </c>
+      <c r="D125" t="n">
+        <v>135</v>
+      </c>
+      <c r="E125" t="n">
+        <v>150</v>
+      </c>
+      <c r="F125" t="n">
+        <v>192</v>
+      </c>
+      <c r="G125" t="n">
+        <v>240</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>06-83319</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>150</v>
+      </c>
+      <c r="D126" t="n">
+        <v>135</v>
+      </c>
+      <c r="E126" t="n">
+        <v>150</v>
+      </c>
+      <c r="F126" t="n">
+        <v>192</v>
+      </c>
+      <c r="G126" t="n">
+        <v>240</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>06-83322</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>150</v>
+      </c>
+      <c r="D127" t="n">
+        <v>135</v>
+      </c>
+      <c r="E127" t="n">
+        <v>150</v>
+      </c>
+      <c r="F127" t="n">
+        <v>192</v>
+      </c>
+      <c r="G127" t="n">
+        <v>240</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>06-83418</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>80</v>
+      </c>
+      <c r="D128" t="n">
+        <v>72</v>
+      </c>
+      <c r="E128" t="n">
+        <v>80</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100</v>
+      </c>
+      <c r="G128" t="n">
+        <v>125</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>06-83419</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>80</v>
+      </c>
+      <c r="D129" t="n">
+        <v>72</v>
+      </c>
+      <c r="E129" t="n">
+        <v>80</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100</v>
+      </c>
+      <c r="G129" t="n">
+        <v>125</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>06-83422</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>80</v>
+      </c>
+      <c r="D130" t="n">
+        <v>72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>80</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G130" t="n">
+        <v>125</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>06-83718</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>60</v>
+      </c>
+      <c r="D131" t="n">
+        <v>54</v>
+      </c>
+      <c r="E131" t="n">
+        <v>60</v>
+      </c>
+      <c r="F131" t="n">
+        <v>76</v>
+      </c>
+      <c r="G131" t="n">
+        <v>95</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>06-83719</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>60</v>
+      </c>
+      <c r="D132" t="n">
+        <v>54</v>
+      </c>
+      <c r="E132" t="n">
+        <v>60</v>
+      </c>
+      <c r="F132" t="n">
+        <v>76</v>
+      </c>
+      <c r="G132" t="n">
+        <v>95</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>06-83722</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>60</v>
+      </c>
+      <c r="D133" t="n">
+        <v>54</v>
+      </c>
+      <c r="E133" t="n">
+        <v>60</v>
+      </c>
+      <c r="F133" t="n">
+        <v>76</v>
+      </c>
+      <c r="G133" t="n">
+        <v>95</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>06-83818</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>180</v>
+      </c>
+      <c r="D134" t="n">
+        <v>162</v>
+      </c>
+      <c r="E134" t="n">
+        <v>180</v>
+      </c>
+      <c r="F134" t="n">
+        <v>228</v>
+      </c>
+      <c r="G134" t="n">
+        <v>285</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>06-83819</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>180</v>
+      </c>
+      <c r="D135" t="n">
+        <v>162</v>
+      </c>
+      <c r="E135" t="n">
+        <v>180</v>
+      </c>
+      <c r="F135" t="n">
+        <v>228</v>
+      </c>
+      <c r="G135" t="n">
+        <v>285</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>06-83822</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>180</v>
+      </c>
+      <c r="D136" t="n">
+        <v>162</v>
+      </c>
+      <c r="E136" t="n">
+        <v>180</v>
+      </c>
+      <c r="F136" t="n">
+        <v>228</v>
+      </c>
+      <c r="G136" t="n">
+        <v>285</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>06-84122</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>140</v>
+      </c>
+      <c r="D137" t="n">
+        <v>126</v>
+      </c>
+      <c r="E137" t="n">
+        <v>140</v>
+      </c>
+      <c r="F137" t="n">
+        <v>176</v>
+      </c>
+      <c r="G137" t="n">
+        <v>220</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>06-84522</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1054006</v>
+      </c>
+      <c r="D138" t="n">
+        <v>948605</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1054005</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1204580</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1505725</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>06-84722</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>120</v>
+      </c>
+      <c r="D139" t="n">
+        <v>108</v>
+      </c>
+      <c r="E139" t="n">
+        <v>120</v>
+      </c>
+      <c r="F139" t="n">
+        <v>152</v>
+      </c>
+      <c r="G139" t="n">
+        <v>190</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>06-84822</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1009506</v>
+      </c>
+      <c r="D140" t="n">
+        <v>908555</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1009505</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1153720</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1442150</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>06-85413</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1039506</v>
+      </c>
+      <c r="D141" t="n">
+        <v>935555</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1039505</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1188008</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1485010</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>06-85419</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1039506</v>
+      </c>
+      <c r="D142" t="n">
+        <v>935555</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1039505</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1188008</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1485010</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>06-85501</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>240</v>
+      </c>
+      <c r="D143" t="n">
+        <v>216</v>
+      </c>
+      <c r="E143" t="n">
+        <v>240</v>
+      </c>
+      <c r="F143" t="n">
+        <v>304</v>
+      </c>
+      <c r="G143" t="n">
+        <v>380</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>06-85513</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>240</v>
+      </c>
+      <c r="D144" t="n">
+        <v>216</v>
+      </c>
+      <c r="E144" t="n">
+        <v>240</v>
+      </c>
+      <c r="F144" t="n">
+        <v>304</v>
+      </c>
+      <c r="G144" t="n">
+        <v>380</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>06-85519</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>240</v>
+      </c>
+      <c r="D145" t="n">
+        <v>216</v>
+      </c>
+      <c r="E145" t="n">
+        <v>240</v>
+      </c>
+      <c r="F145" t="n">
+        <v>304</v>
+      </c>
+      <c r="G145" t="n">
+        <v>380</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>06-85613</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>922006</v>
+      </c>
+      <c r="D146" t="n">
+        <v>829805</v>
+      </c>
+      <c r="E146" t="n">
+        <v>922005</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1053720</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1317150</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>06-85713</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>120</v>
+      </c>
+      <c r="D147" t="n">
+        <v>108</v>
+      </c>
+      <c r="E147" t="n">
+        <v>120</v>
+      </c>
+      <c r="F147" t="n">
+        <v>152</v>
+      </c>
+      <c r="G147" t="n">
+        <v>190</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>06-85719</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>120</v>
+      </c>
+      <c r="D148" t="n">
+        <v>108</v>
+      </c>
+      <c r="E148" t="n">
+        <v>120</v>
+      </c>
+      <c r="F148" t="n">
+        <v>152</v>
+      </c>
+      <c r="G148" t="n">
+        <v>190</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>06-85813</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>666506</v>
+      </c>
+      <c r="D149" t="n">
+        <v>599855</v>
+      </c>
+      <c r="E149" t="n">
+        <v>666505</v>
+      </c>
+      <c r="F149" t="n">
+        <v>761720</v>
+      </c>
+      <c r="G149" t="n">
+        <v>952150</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>06-85913</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>180</v>
+      </c>
+      <c r="D150" t="n">
+        <v>162</v>
+      </c>
+      <c r="E150" t="n">
+        <v>180</v>
+      </c>
+      <c r="F150" t="n">
+        <v>228</v>
+      </c>
+      <c r="G150" t="n">
+        <v>285</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>06-85919</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>180</v>
+      </c>
+      <c r="D151" t="n">
+        <v>162</v>
+      </c>
+      <c r="E151" t="n">
+        <v>180</v>
+      </c>
+      <c r="F151" t="n">
+        <v>228</v>
+      </c>
+      <c r="G151" t="n">
+        <v>285</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>06-86013</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>10295</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9265</v>
+      </c>
+      <c r="E152" t="n">
+        <v>10295</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11764</v>
+      </c>
+      <c r="G152" t="n">
+        <v>14705</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>06-86019</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1029506</v>
+      </c>
+      <c r="D153" t="n">
+        <v>926555</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1029505</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1176580</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1470725</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>06-86113</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1149506</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1034555</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1149505</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1313720</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1642150</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>06-86119</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1149506</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1034555</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1149505</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1313720</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1642150</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>06-86219</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>847506</v>
+      </c>
+      <c r="D156" t="n">
+        <v>762755</v>
+      </c>
+      <c r="E156" t="n">
+        <v>847505</v>
+      </c>
+      <c r="F156" t="n">
+        <v>968580</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1210725</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>06-86419</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>679506</v>
+      </c>
+      <c r="D157" t="n">
+        <v>611555</v>
+      </c>
+      <c r="E157" t="n">
+        <v>679505</v>
+      </c>
+      <c r="F157" t="n">
+        <v>776580</v>
+      </c>
+      <c r="G157" t="n">
+        <v>970725</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>06-86519</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>389506</v>
+      </c>
+      <c r="D158" t="n">
+        <v>350555</v>
+      </c>
+      <c r="E158" t="n">
+        <v>389505</v>
+      </c>
+      <c r="F158" t="n">
+        <v>445148</v>
+      </c>
+      <c r="G158" t="n">
+        <v>556435</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>06-86613</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>562006</v>
+      </c>
+      <c r="D159" t="n">
+        <v>505805</v>
+      </c>
+      <c r="E159" t="n">
+        <v>562005</v>
+      </c>
+      <c r="F159" t="n">
+        <v>642292</v>
+      </c>
+      <c r="G159" t="n">
+        <v>802865</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>06-86713</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1279506</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1151555</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1279505</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1462292</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1827865</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>06-86719</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1279506</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1151555</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1279505</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1462292</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1827865</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>06-86819</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1145506</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1030955</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1145505</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1309148</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1636435</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>06-86919</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>120</v>
+      </c>
+      <c r="D163" t="n">
+        <v>108</v>
+      </c>
+      <c r="E163" t="n">
+        <v>120</v>
+      </c>
+      <c r="F163" t="n">
+        <v>152</v>
+      </c>
+      <c r="G163" t="n">
+        <v>190</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>06-87013</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>509506</v>
+      </c>
+      <c r="D164" t="n">
+        <v>458555</v>
+      </c>
+      <c r="E164" t="n">
+        <v>509505</v>
+      </c>
+      <c r="F164" t="n">
+        <v>582292</v>
+      </c>
+      <c r="G164" t="n">
+        <v>727865</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>06-87113</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>445006</v>
+      </c>
+      <c r="D165" t="n">
+        <v>400505</v>
+      </c>
+      <c r="E165" t="n">
+        <v>445005</v>
+      </c>
+      <c r="F165" t="n">
+        <v>508580</v>
+      </c>
+      <c r="G165" t="n">
+        <v>635725</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>06-87213</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>130</v>
+      </c>
+      <c r="D166" t="n">
+        <v>117</v>
+      </c>
+      <c r="E166" t="n">
+        <v>130</v>
+      </c>
+      <c r="F166" t="n">
+        <v>164</v>
+      </c>
+      <c r="G166" t="n">
+        <v>205</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>06-87219</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>130</v>
+      </c>
+      <c r="D167" t="n">
+        <v>117</v>
+      </c>
+      <c r="E167" t="n">
+        <v>130</v>
+      </c>
+      <c r="F167" t="n">
+        <v>164</v>
+      </c>
+      <c r="G167" t="n">
+        <v>205</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>06-87313</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>160</v>
+      </c>
+      <c r="D168" t="n">
+        <v>144</v>
+      </c>
+      <c r="E168" t="n">
+        <v>160</v>
+      </c>
+      <c r="F168" t="n">
+        <v>204</v>
+      </c>
+      <c r="G168" t="n">
+        <v>255</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>06-87319</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>160</v>
+      </c>
+      <c r="D169" t="n">
+        <v>144</v>
+      </c>
+      <c r="E169" t="n">
+        <v>160</v>
+      </c>
+      <c r="F169" t="n">
+        <v>204</v>
+      </c>
+      <c r="G169" t="n">
+        <v>255</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>06-87413</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G170" t="n">
+        <v>5</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>06-87419</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>4</v>
+      </c>
+      <c r="G171" t="n">
+        <v>5</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>06-87513</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>299506</v>
+      </c>
+      <c r="D172" t="n">
+        <v>269555</v>
+      </c>
+      <c r="E172" t="n">
+        <v>299505</v>
+      </c>
+      <c r="F172" t="n">
+        <v>342292</v>
+      </c>
+      <c r="G172" t="n">
+        <v>427865</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>06-87613</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>614006</v>
+      </c>
+      <c r="D173" t="n">
+        <v>552605</v>
+      </c>
+      <c r="E173" t="n">
+        <v>614005</v>
+      </c>
+      <c r="F173" t="n">
+        <v>701720</v>
+      </c>
+      <c r="G173" t="n">
+        <v>877150</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>06-87713</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>245506</v>
+      </c>
+      <c r="D174" t="n">
+        <v>220955</v>
+      </c>
+      <c r="E174" t="n">
+        <v>245505</v>
+      </c>
+      <c r="F174" t="n">
+        <v>280580</v>
+      </c>
+      <c r="G174" t="n">
+        <v>350725</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>06-88129</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>489506</v>
+      </c>
+      <c r="D175" t="n">
+        <v>440555</v>
+      </c>
+      <c r="E175" t="n">
+        <v>489505</v>
+      </c>
+      <c r="F175" t="n">
+        <v>559436</v>
+      </c>
+      <c r="G175" t="n">
+        <v>699295</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>06-88519</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>130</v>
+      </c>
+      <c r="D176" t="n">
+        <v>117</v>
+      </c>
+      <c r="E176" t="n">
+        <v>130</v>
+      </c>
+      <c r="F176" t="n">
+        <v>164</v>
+      </c>
+      <c r="G176" t="n">
+        <v>205</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>06-88613</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>90</v>
+      </c>
+      <c r="D177" t="n">
+        <v>81</v>
+      </c>
+      <c r="E177" t="n">
+        <v>90</v>
+      </c>
+      <c r="F177" t="n">
+        <v>116</v>
+      </c>
+      <c r="G177" t="n">
+        <v>145</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>06-88619</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>90</v>
+      </c>
+      <c r="D178" t="n">
+        <v>81</v>
+      </c>
+      <c r="E178" t="n">
+        <v>90</v>
+      </c>
+      <c r="F178" t="n">
+        <v>116</v>
+      </c>
+      <c r="G178" t="n">
+        <v>145</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>06-88901</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>06-88918</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>06-88919</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>4</v>
+      </c>
+      <c r="G181" t="n">
+        <v>5</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>06-88922</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>4</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>06-89001</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>177506</v>
+      </c>
+      <c r="D183" t="n">
+        <v>159755</v>
+      </c>
+      <c r="E183" t="n">
+        <v>177505</v>
+      </c>
+      <c r="F183" t="n">
+        <v>202864</v>
+      </c>
+      <c r="G183" t="n">
+        <v>253580</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>06-89019</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>177506</v>
+      </c>
+      <c r="D184" t="n">
+        <v>159755</v>
+      </c>
+      <c r="E184" t="n">
+        <v>177505</v>
+      </c>
+      <c r="F184" t="n">
+        <v>202864</v>
+      </c>
+      <c r="G184" t="n">
+        <v>253580</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>06-89101</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>222506</v>
+      </c>
+      <c r="D185" t="n">
+        <v>200255</v>
+      </c>
+      <c r="E185" t="n">
+        <v>222505</v>
+      </c>
+      <c r="F185" t="n">
+        <v>254292</v>
+      </c>
+      <c r="G185" t="n">
+        <v>317865</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>06-89119</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2225</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2225</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2544</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3180</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>06-89122</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>222506</v>
+      </c>
+      <c r="D187" t="n">
+        <v>200255</v>
+      </c>
+      <c r="E187" t="n">
+        <v>222505</v>
+      </c>
+      <c r="F187" t="n">
+        <v>254292</v>
+      </c>
+      <c r="G187" t="n">
+        <v>317865</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>06-89218</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>327506</v>
+      </c>
+      <c r="D188" t="n">
+        <v>294755</v>
+      </c>
+      <c r="E188" t="n">
+        <v>327505</v>
+      </c>
+      <c r="F188" t="n">
+        <v>374292</v>
+      </c>
+      <c r="G188" t="n">
+        <v>467865</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>06-89319</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>359506</v>
+      </c>
+      <c r="D189" t="n">
+        <v>323555</v>
+      </c>
+      <c r="E189" t="n">
+        <v>359505</v>
+      </c>
+      <c r="F189" t="n">
+        <v>410864</v>
+      </c>
+      <c r="G189" t="n">
+        <v>513580</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>06-89419</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>110</v>
+      </c>
+      <c r="D190" t="n">
+        <v>99</v>
+      </c>
+      <c r="E190" t="n">
+        <v>110</v>
+      </c>
+      <c r="F190" t="n">
+        <v>140</v>
+      </c>
+      <c r="G190" t="n">
+        <v>175</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>06-89542</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>503506</v>
+      </c>
+      <c r="D191" t="n">
+        <v>453155</v>
+      </c>
+      <c r="E191" t="n">
+        <v>503505</v>
+      </c>
+      <c r="F191" t="n">
+        <v>575436</v>
+      </c>
+      <c r="G191" t="n">
+        <v>719295</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>06-89719</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>749506</v>
+      </c>
+      <c r="D192" t="n">
+        <v>674555</v>
+      </c>
+      <c r="E192" t="n">
+        <v>749505</v>
+      </c>
+      <c r="F192" t="n">
+        <v>856580</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1070725</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>06-90100</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>169506</v>
+      </c>
+      <c r="D193" t="n">
+        <v>152555</v>
+      </c>
+      <c r="E193" t="n">
+        <v>169505</v>
+      </c>
+      <c r="F193" t="n">
+        <v>193720</v>
+      </c>
+      <c r="G193" t="n">
+        <v>242150</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>06-90130</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>199506</v>
+      </c>
+      <c r="D194" t="n">
+        <v>179555</v>
+      </c>
+      <c r="E194" t="n">
+        <v>199505</v>
+      </c>
+      <c r="F194" t="n">
+        <v>228008</v>
+      </c>
+      <c r="G194" t="n">
+        <v>285010</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>06-90342</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>50</v>
+      </c>
+      <c r="D195" t="n">
+        <v>45</v>
+      </c>
+      <c r="E195" t="n">
+        <v>50</v>
+      </c>
+      <c r="F195" t="n">
+        <v>64</v>
+      </c>
+      <c r="G195" t="n">
+        <v>80</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>06-90542</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>369506</v>
+      </c>
+      <c r="D196" t="n">
+        <v>332555</v>
+      </c>
+      <c r="E196" t="n">
+        <v>369505</v>
+      </c>
+      <c r="F196" t="n">
+        <v>422292</v>
+      </c>
+      <c r="G196" t="n">
+        <v>527865</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>06-90742</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>759506</v>
+      </c>
+      <c r="D197" t="n">
+        <v>683555</v>
+      </c>
+      <c r="E197" t="n">
+        <v>759505</v>
+      </c>
+      <c r="F197" t="n">
+        <v>868008</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1085010</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>06-91410</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>685506</v>
+      </c>
+      <c r="D198" t="n">
+        <v>616955</v>
+      </c>
+      <c r="E198" t="n">
+        <v>685505</v>
+      </c>
+      <c r="F198" t="n">
+        <v>783436</v>
+      </c>
+      <c r="G198" t="n">
+        <v>979295</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>06-91610</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>799506</v>
+      </c>
+      <c r="D199" t="n">
+        <v>719555</v>
+      </c>
+      <c r="E199" t="n">
+        <v>799505</v>
+      </c>
+      <c r="F199" t="n">
+        <v>913720</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1142150</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>06-95519</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>139506</v>
+      </c>
+      <c r="D200" t="n">
+        <v>125555</v>
+      </c>
+      <c r="E200" t="n">
+        <v>139505</v>
+      </c>
+      <c r="F200" t="n">
+        <v>159436</v>
+      </c>
+      <c r="G200" t="n">
+        <v>199295</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>06-95799</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>449506</v>
+      </c>
+      <c r="D201" t="n">
+        <v>404555</v>
+      </c>
+      <c r="E201" t="n">
+        <v>449505</v>
+      </c>
+      <c r="F201" t="n">
+        <v>513720</v>
+      </c>
+      <c r="G201" t="n">
+        <v>642150</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>06-95901</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>339506</v>
+      </c>
+      <c r="D202" t="n">
+        <v>305555</v>
+      </c>
+      <c r="E202" t="n">
+        <v>339505</v>
+      </c>
+      <c r="F202" t="n">
+        <v>388008</v>
+      </c>
+      <c r="G202" t="n">
+        <v>485010</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>06-95919</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>339506</v>
+      </c>
+      <c r="D203" t="n">
+        <v>305555</v>
+      </c>
+      <c r="E203" t="n">
+        <v>339505</v>
+      </c>
+      <c r="F203" t="n">
+        <v>388008</v>
+      </c>
+      <c r="G203" t="n">
+        <v>485010</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>06-96013</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>100</v>
+      </c>
+      <c r="D204" t="n">
+        <v>90</v>
+      </c>
+      <c r="E204" t="n">
+        <v>100</v>
+      </c>
+      <c r="F204" t="n">
+        <v>128</v>
+      </c>
+      <c r="G204" t="n">
+        <v>160</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>06-96019</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>100</v>
+      </c>
+      <c r="D205" t="n">
+        <v>90</v>
+      </c>
+      <c r="E205" t="n">
+        <v>100</v>
+      </c>
+      <c r="F205" t="n">
+        <v>128</v>
+      </c>
+      <c r="G205" t="n">
+        <v>160</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>06-96101</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>80</v>
+      </c>
+      <c r="D206" t="n">
+        <v>72</v>
+      </c>
+      <c r="E206" t="n">
+        <v>80</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
+      </c>
+      <c r="G206" t="n">
+        <v>125</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>06-96113</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>80</v>
+      </c>
+      <c r="D207" t="n">
+        <v>72</v>
+      </c>
+      <c r="E207" t="n">
+        <v>80</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" t="n">
+        <v>125</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>06-96119</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>80</v>
+      </c>
+      <c r="D208" t="n">
+        <v>72</v>
+      </c>
+      <c r="E208" t="n">
+        <v>80</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100</v>
+      </c>
+      <c r="G208" t="n">
+        <v>125</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>06-96201</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1049506</v>
+      </c>
+      <c r="D209" t="n">
+        <v>944555</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1049505</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1199436</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1499295</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>06-96601</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>467506</v>
+      </c>
+      <c r="D210" t="n">
+        <v>420755</v>
+      </c>
+      <c r="E210" t="n">
+        <v>467505</v>
+      </c>
+      <c r="F210" t="n">
+        <v>534292</v>
+      </c>
+      <c r="G210" t="n">
+        <v>667865</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>06-97101</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>566506</v>
+      </c>
+      <c r="D211" t="n">
+        <v>509855</v>
+      </c>
+      <c r="E211" t="n">
+        <v>566505</v>
+      </c>
+      <c r="F211" t="n">
+        <v>647436</v>
+      </c>
+      <c r="G211" t="n">
+        <v>809295</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>07-06125</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>369507</v>
+      </c>
+      <c r="D212" t="n">
+        <v>332556</v>
+      </c>
+      <c r="E212" t="n">
+        <v>369505</v>
+      </c>
+      <c r="F212" t="n">
+        <v>422292</v>
+      </c>
+      <c r="G212" t="n">
+        <v>527865</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>07-06162</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2167507</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1950756</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2167505</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2477152</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3096440</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>07-06164</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>4199007</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3779106</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4199005</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4798864</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5998580</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>07-06166</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>6241007</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5616906</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6241005</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7132580</v>
+      </c>
+      <c r="G215" t="n">
+        <v>8915725</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>07-06168</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>82830</v>
+      </c>
+      <c r="D216" t="n">
+        <v>74547</v>
+      </c>
+      <c r="E216" t="n">
+        <v>82830</v>
+      </c>
+      <c r="F216" t="n">
+        <v>94664</v>
+      </c>
+      <c r="G216" t="n">
+        <v>118330</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>07-06169</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>9304007</v>
+      </c>
+      <c r="D217" t="n">
+        <v>8373606</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9304005</v>
+      </c>
+      <c r="F217" t="n">
+        <v>10633152</v>
+      </c>
+      <c r="G217" t="n">
+        <v>13291440</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>07-07235</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>379507</v>
+      </c>
+      <c r="D218" t="n">
+        <v>341556</v>
+      </c>
+      <c r="E218" t="n">
+        <v>379505</v>
+      </c>
+      <c r="F218" t="n">
+        <v>433724</v>
+      </c>
+      <c r="G218" t="n">
+        <v>542155</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>07-07262</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2138007</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1924206</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2138005</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2443436</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3054295</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>07-07264</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>4159007</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3743106</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4159005</v>
+      </c>
+      <c r="F220" t="n">
+        <v>4753152</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5941440</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>07-07266</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>6207507</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5586756</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6207505</v>
+      </c>
+      <c r="F221" t="n">
+        <v>7094292</v>
+      </c>
+      <c r="G221" t="n">
+        <v>8867865</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>07-07268</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>8253007</v>
+      </c>
+      <c r="D222" t="n">
+        <v>7427706</v>
+      </c>
+      <c r="E222" t="n">
+        <v>8253005</v>
+      </c>
+      <c r="F222" t="n">
+        <v>9432008</v>
+      </c>
+      <c r="G222" t="n">
+        <v>11790010</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>07-07270</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>87507</v>
+      </c>
+      <c r="D223" t="n">
+        <v>78756</v>
+      </c>
+      <c r="E223" t="n">
+        <v>87505</v>
+      </c>
+      <c r="F223" t="n">
+        <v>100008</v>
+      </c>
+      <c r="G223" t="n">
+        <v>125010</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>07-09061</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>4</v>
+      </c>
+      <c r="G224" t="n">
+        <v>5</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>07-09062</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>5</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>07-09063</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>07-09064</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>4</v>
+      </c>
+      <c r="G227" t="n">
+        <v>5</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>07-09065</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>4</v>
+      </c>
+      <c r="G228" t="n">
+        <v>5</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>07-09066</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5</v>
+      </c>
+      <c r="F229" t="n">
+        <v>4</v>
+      </c>
+      <c r="G229" t="n">
+        <v>5</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>07-09067</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>3</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5</v>
+      </c>
+      <c r="F230" t="n">
+        <v>4</v>
+      </c>
+      <c r="G230" t="n">
+        <v>5</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>07-09068</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4</v>
+      </c>
+      <c r="G231" t="n">
+        <v>5</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>07-09069</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>4</v>
+      </c>
+      <c r="G232" t="n">
+        <v>5</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>07-09070</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>3</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" t="n">
+        <v>5</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>07-09235</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>369507</v>
+      </c>
+      <c r="D234" t="n">
+        <v>332556</v>
+      </c>
+      <c r="E234" t="n">
+        <v>369505</v>
+      </c>
+      <c r="F234" t="n">
+        <v>422292</v>
+      </c>
+      <c r="G234" t="n">
+        <v>527865</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>07-09262</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>2132007</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1918806</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2132005</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2436580</v>
+      </c>
+      <c r="G235" t="n">
+        <v>3045725</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>07-09264</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>4152507</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3737256</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4152505</v>
+      </c>
+      <c r="F236" t="n">
+        <v>4745724</v>
+      </c>
+      <c r="G236" t="n">
+        <v>5932155</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>07-09266</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>6213507</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5592156</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6213505</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7101152</v>
+      </c>
+      <c r="G237" t="n">
+        <v>8876440</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>07-09268</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>8264007</v>
+      </c>
+      <c r="D238" t="n">
+        <v>7437606</v>
+      </c>
+      <c r="E238" t="n">
+        <v>8264005</v>
+      </c>
+      <c r="F238" t="n">
+        <v>9444580</v>
+      </c>
+      <c r="G238" t="n">
+        <v>11805725</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>07-09270</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>72507</v>
+      </c>
+      <c r="D239" t="n">
+        <v>65256</v>
+      </c>
+      <c r="E239" t="n">
+        <v>72505</v>
+      </c>
+      <c r="F239" t="n">
+        <v>82864</v>
+      </c>
+      <c r="G239" t="n">
+        <v>103580</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>07-10061</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>4</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>07-10062</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>4</v>
+      </c>
+      <c r="G241" t="n">
+        <v>5</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>07-10063</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4</v>
+      </c>
+      <c r="G242" t="n">
+        <v>5</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>07-10064</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>4</v>
+      </c>
+      <c r="G243" t="n">
+        <v>5</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>07-10065</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>4</v>
+      </c>
+      <c r="G244" t="n">
+        <v>5</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>07-10066</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>4</v>
+      </c>
+      <c r="G245" t="n">
+        <v>5</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>07-10067</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5</v>
+      </c>
+      <c r="F246" t="n">
+        <v>4</v>
+      </c>
+      <c r="G246" t="n">
+        <v>5</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>07-10068</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>3</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>4</v>
+      </c>
+      <c r="G247" t="n">
+        <v>5</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>07-10069</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" t="n">
+        <v>5</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>07-10070</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4</v>
+      </c>
+      <c r="G249" t="n">
+        <v>5</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
           <t>07-10235</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Produktbeskrivelse</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>442319507</v>
-      </c>
-      <c r="D47" t="n">
-        <v>398087556</v>
-      </c>
-      <c r="E47" t="n">
-        <v>442319505</v>
-      </c>
-      <c r="F47" t="n">
-        <v>505508008</v>
-      </c>
-      <c r="G47" t="n">
-        <v>631885010</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Produktbeskrivelse</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>319507</v>
+      </c>
+      <c r="D250" t="n">
+        <v>287556</v>
+      </c>
+      <c r="E250" t="n">
+        <v>319505</v>
+      </c>
+      <c r="F250" t="n">
+        <v>365152</v>
+      </c>
+      <c r="G250" t="n">
+        <v>456440</v>
+      </c>
+      <c r="H250" t="inlineStr">
         <is>
           <t>Produktbeskrivelse</t>
         </is>
